--- a/report/runtime.xlsx
+++ b/report/runtime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agatha/PycharmProjects/HPC-Twitter-GeoProcessing/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzi\OneDrive\Desktop\COMP90024 Cluster and Cloud Computing\Ass1\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F88ECF-D8C4-9C43-8635-D0300A49C9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F7F88ECF-D8C4-9C43-8635-D0300A49C9A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A3CEC159-8CC1-4398-A1CD-7AA3C8AFCCFC}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="460" windowWidth="15420" windowHeight="14880" xr2:uid="{A31E31A1-D1A9-1446-BE97-B5347AA50DD0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{A31E31A1-D1A9-1446-BE97-B5347AA50DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,7 +103,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -108,6 +115,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" altLang="zh-CN"/>
+              <a:t>Runtime (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -133,7 +166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -141,7 +174,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -157,6 +190,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$7</c:f>
@@ -187,7 +278,7 @@
                   <c:v>131.35599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.35599999999999</c:v>
+                  <c:v>125.575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -199,15 +290,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="540101215"/>
         <c:axId val="483262271"/>
       </c:barChart>
@@ -217,7 +308,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -252,7 +343,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="483262271"/>
@@ -268,7 +359,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -311,7 +402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540101215"/>
@@ -359,7 +450,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -955,7 +1046,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1254,15 +1345,15 @@
   <dimension ref="A5:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1362,7 @@
         <v>333.09800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1280,17 +1371,18 @@
         <v>131.35599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <f>2*60+11.356</f>
-        <v>131.35599999999999</v>
+        <v>125.575</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>